--- a/Sales_Inventory/TestData/ReadDataBasedOnCondition.xlsx
+++ b/Sales_Inventory/TestData/ReadDataBasedOnCondition.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d0793e037f062cc/Desktop/Advance Selenium Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Desktop\Supply chain Management1\sales_Inventory_mugdhaKR\Sales_Inventory\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{0D422724-8C70-4CCC-B2E2-0966C3E752C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C80FB15A-5733-47BC-BF12-1ED8467D081A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B7F9C4-F8B5-425A-808D-86CD1EFFC06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{DE0DB1FF-C434-4B88-99A4-9B3D1B10DB9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{DE0DB1FF-C434-4B88-99A4-9B3D1B10DB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="productInfo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>TC_ID</t>
   </si>
@@ -81,17 +73,46 @@
     <t>instagram_</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>p_Name</t>
+  </si>
+  <si>
+    <t>p_Price</t>
+  </si>
+  <si>
+    <t>p_Desc</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Formal shoes</t>
+  </si>
+  <si>
+    <t>Charger</t>
+  </si>
+  <si>
+    <t>Mobile Charger</t>
+  </si>
+  <si>
+    <t>Tshirt</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>Women Tshirt</t>
+  </si>
+  <si>
+    <t>Men Shirt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,12 +122,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -149,11 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,15 +498,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF3AA0D-8B6D-4D28-9CEA-BFB7562CB678}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -529,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -573,4 +601,79 @@
     <ignoredError sqref="D2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC08588-1C45-4960-98D4-AECE8FA10C4E}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>900</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>600</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sales_Inventory/TestData/ReadDataBasedOnCondition.xlsx
+++ b/Sales_Inventory/TestData/ReadDataBasedOnCondition.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d0793e037f062cc/Desktop/Advance Selenium Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c5e5931f33c8596/Desktop/Project/sales_Inventory_Harshali/Sales_Inventory/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{0D422724-8C70-4CCC-B2E2-0966C3E752C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C80FB15A-5733-47BC-BF12-1ED8467D081A}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{0D422724-8C70-4CCC-B2E2-0966C3E752C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F695FF79-2E29-4643-8133-305CCA43F7FA}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{DE0DB1FF-C434-4B88-99A4-9B3D1B10DB9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{DE0DB1FF-C434-4B88-99A4-9B3D1B10DB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Prod" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>TC_ID</t>
   </si>
@@ -81,17 +73,22 @@
     <t>instagram_</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>ProdID</t>
+  </si>
+  <si>
+    <t>ProdQuantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,18 +467,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF3AA0D-8B6D-4D28-9CEA-BFB7562CB678}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -515,7 +512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -529,10 +526,10 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -547,20 +544,20 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -573,4 +570,134 @@
     <ignoredError sqref="D2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E10868D-1ED6-47DA-86A4-4756223026C3}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sales_Inventory/TestData/ReadDataBasedOnCondition.xlsx
+++ b/Sales_Inventory/TestData/ReadDataBasedOnCondition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Desktop\Supply chain Management1\sales_Inventory_mugdhaKR\Sales_Inventory\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B7F9C4-F8B5-425A-808D-86CD1EFFC06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C473185C-3EFC-4E6B-B381-6C1EFCB024BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{DE0DB1FF-C434-4B88-99A4-9B3D1B10DB9D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>TC_ID</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>Men Shirt</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>Wireless</t>
   </si>
 </sst>
 </file>
@@ -605,10 +611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC08588-1C45-4960-98D4-AECE8FA10C4E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,6 +679,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>1500</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sales_Inventory/TestData/ReadDataBasedOnCondition.xlsx
+++ b/Sales_Inventory/TestData/ReadDataBasedOnCondition.xlsx
@@ -3,20 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Desktop\Supply chain Management1\sales_Inventory_mugdhaKR\Sales_Inventory\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C473185C-3EFC-4E6B-B381-6C1EFCB024BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5A2DEE0E-C2D6-40F1-85DC-D94D1EC032EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{DE0DB1FF-C434-4B88-99A4-9B3D1B10DB9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{DE0DB1FF-C434-4B88-99A4-9B3D1B10DB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="productInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="Prod" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>TC_ID</t>
   </si>
@@ -113,6 +110,15 @@
   </si>
   <si>
     <t>Wireless</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -504,18 +510,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF3AA0D-8B6D-4D28-9CEA-BFB7562CB678}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -549,7 +555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -566,7 +572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -581,20 +587,20 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -613,18 +619,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC08588-1C45-4960-98D4-AECE8FA10C4E}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -635,7 +641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -646,7 +652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -657,7 +663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -668,7 +674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -679,7 +685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -690,6 +696,186 @@
         <v>28</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153C6766-A488-4919-93AE-53EDF2721C0C}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sales_Inventory/TestData/ReadDataBasedOnCondition.xlsx
+++ b/Sales_Inventory/TestData/ReadDataBasedOnCondition.xlsx
@@ -3,17 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5A2DEE0E-C2D6-40F1-85DC-D94D1EC032EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Desktop\Supply Chian Management\sales_Inventory_mugdha_K_R\Sales_Inventory\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C293CDC7-27EF-4FF1-BF9D-9025B4321F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{DE0DB1FF-C434-4B88-99A4-9B3D1B10DB9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{DE0DB1FF-C434-4B88-99A4-9B3D1B10DB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="productInfo" sheetId="2" r:id="rId2"/>
     <sheet name="Prod" sheetId="3" r:id="rId3"/>
+    <sheet name="manageCt" sheetId="4" r:id="rId4"/>
+    <sheet name="manageUnit" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>TC_ID</t>
   </si>
@@ -119,6 +125,54 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>1 m = 100 cm</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>1 m = 1000 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 pound= 453.592 grams </t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Formal Shoes</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>casual Shoes</t>
+  </si>
+  <si>
+    <t>Bata</t>
+  </si>
+  <si>
+    <t>HealthCare</t>
+  </si>
+  <si>
+    <t>HandBag</t>
+  </si>
+  <si>
+    <t>Proda</t>
+  </si>
+  <si>
+    <t>Gucci</t>
   </si>
 </sst>
 </file>
@@ -514,14 +568,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -555,7 +609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -572,7 +626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -587,20 +641,20 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -620,17 +674,17 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -641,7 +695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -652,7 +706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -663,7 +717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -674,7 +728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -685,7 +739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -703,15 +757,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153C6766-A488-4919-93AE-53EDF2721C0C}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -722,7 +776,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -730,7 +784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -738,7 +792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -746,7 +800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -754,7 +808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -762,7 +816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -770,7 +824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -778,7 +832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -786,7 +840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -794,7 +848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -802,7 +856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
@@ -810,7 +864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
@@ -818,7 +872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
@@ -826,7 +880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14</v>
       </c>
@@ -834,7 +888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15</v>
       </c>
@@ -842,7 +896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>16</v>
       </c>
@@ -850,7 +904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>17</v>
       </c>
@@ -858,7 +912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18</v>
       </c>
@@ -866,17 +920,121 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB90D5B2-1AD2-4B1F-A416-EBA79700068E}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532A01C4-B19A-4902-B881-F9B0B49A6445}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Sales_Inventory/TestData/ReadDataBasedOnCondition.xlsx
+++ b/Sales_Inventory/TestData/ReadDataBasedOnCondition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Desktop\Supply Chian Management\sales_Inventory_mugdha_K_R\Sales_Inventory\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C293CDC7-27EF-4FF1-BF9D-9025B4321F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE46021D-A6AF-4B55-9156-81DC32CEC2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{DE0DB1FF-C434-4B88-99A4-9B3D1B10DB9D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>TC_ID</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>Gucci</t>
+  </si>
+  <si>
+    <t>1 Liter = 1000 milliliters (mL)</t>
+  </si>
+  <si>
+    <t>Ltr</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milligram </t>
   </si>
 </sst>
 </file>
@@ -993,15 +1005,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532A01C4-B19A-4902-B881-F9B0B49A6445}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1033,6 +1045,22 @@
         <v>38</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales_Inventory/TestData/ReadDataBasedOnCondition.xlsx
+++ b/Sales_Inventory/TestData/ReadDataBasedOnCondition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Desktop\Supply Chian Management\sales_Inventory_mugdha_K_R\Sales_Inventory\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE46021D-A6AF-4B55-9156-81DC32CEC2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0258FD-24F1-43FA-BDBC-6FA5E828E6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{DE0DB1FF-C434-4B88-99A4-9B3D1B10DB9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{DE0DB1FF-C434-4B88-99A4-9B3D1B10DB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>TC_ID</t>
   </si>
@@ -185,6 +185,48 @@
   </si>
   <si>
     <t xml:space="preserve">Milligram </t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>1 cm = 100 mm</t>
+  </si>
+  <si>
+    <t>junkfood</t>
+  </si>
+  <si>
+    <t>contains fat</t>
+  </si>
+  <si>
+    <t>Biscuite</t>
+  </si>
+  <si>
+    <t>GOOD Day</t>
+  </si>
+  <si>
+    <t>Cadbary</t>
+  </si>
+  <si>
+    <t>DairyMilk</t>
+  </si>
+  <si>
+    <t>Chocolates</t>
+  </si>
+  <si>
+    <t>MangoBite</t>
+  </si>
+  <si>
+    <t>sm</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>sy</t>
   </si>
 </sst>
 </file>
@@ -683,10 +725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC08588-1C45-4960-98D4-AECE8FA10C4E}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +738,7 @@
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -707,7 +749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -718,7 +760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -729,7 +771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -740,7 +782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -751,7 +793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -760,6 +802,61 @@
       </c>
       <c r="C6" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -939,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB90D5B2-1AD2-4B1F-A416-EBA79700068E}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,6 +1095,14 @@
         <v>44</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1005,18 +1110,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532A01C4-B19A-4902-B881-F9B0B49A6445}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
@@ -1024,15 +1131,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1040,12 +1150,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1053,12 +1163,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
